--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H2">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I2">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J2">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.28952003767605</v>
+        <v>4.389977333333333</v>
       </c>
       <c r="N2">
-        <v>4.28952003767605</v>
+        <v>13.169932</v>
       </c>
       <c r="O2">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783071</v>
       </c>
       <c r="P2">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783072</v>
       </c>
       <c r="Q2">
-        <v>59.45852771267431</v>
+        <v>68.15687990051912</v>
       </c>
       <c r="R2">
-        <v>59.45852771267431</v>
+        <v>613.4119191046719</v>
       </c>
       <c r="S2">
-        <v>0.008908709986754386</v>
+        <v>0.008508930927222491</v>
       </c>
       <c r="T2">
-        <v>0.008908709986754386</v>
+        <v>0.008508930927222493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H3">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I3">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J3">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.5540336071728</v>
+        <v>52.60848633333333</v>
       </c>
       <c r="N3">
-        <v>52.5540336071728</v>
+        <v>157.825459</v>
       </c>
       <c r="O3">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465702</v>
       </c>
       <c r="P3">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465704</v>
       </c>
       <c r="Q3">
-        <v>728.4697206678228</v>
+        <v>816.7764916559404</v>
       </c>
       <c r="R3">
-        <v>728.4697206678228</v>
+        <v>7350.988424903463</v>
       </c>
       <c r="S3">
-        <v>0.1091470933643425</v>
+        <v>0.1019690860353862</v>
       </c>
       <c r="T3">
-        <v>0.1091470933643425</v>
+        <v>0.1019690860353862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H4">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I4">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J4">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>44.5798055134375</v>
+        <v>0.1014806666666667</v>
       </c>
       <c r="N4">
-        <v>44.5798055134375</v>
+        <v>0.304442</v>
       </c>
       <c r="O4">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511412</v>
       </c>
       <c r="P4">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511414</v>
       </c>
       <c r="Q4">
-        <v>617.9361742724035</v>
+        <v>1.575544720403556</v>
       </c>
       <c r="R4">
-        <v>617.9361742724035</v>
+        <v>14.179902483632</v>
       </c>
       <c r="S4">
-        <v>0.09258578001661313</v>
+        <v>0.000196696228146468</v>
       </c>
       <c r="T4">
-        <v>0.09258578001661313</v>
+        <v>0.000196696228146468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.8663284099668</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H5">
-        <v>12.8663284099668</v>
+        <v>46.576696</v>
       </c>
       <c r="I5">
-        <v>0.1955209473454081</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J5">
-        <v>0.1955209473454081</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.28952003767605</v>
+        <v>0.132795</v>
       </c>
       <c r="N5">
-        <v>4.28952003767605</v>
+        <v>0.398385</v>
       </c>
       <c r="O5">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593907</v>
       </c>
       <c r="P5">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593908</v>
       </c>
       <c r="Q5">
-        <v>55.19037352587322</v>
+        <v>2.06171744844</v>
       </c>
       <c r="R5">
-        <v>55.19037352587322</v>
+        <v>18.55545703596</v>
       </c>
       <c r="S5">
-        <v>0.008269209661204664</v>
+        <v>0.0002573916438931904</v>
       </c>
       <c r="T5">
-        <v>0.008269209661204664</v>
+        <v>0.0002573916438931904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.8663284099668</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H6">
-        <v>12.8663284099668</v>
+        <v>46.576696</v>
       </c>
       <c r="I6">
-        <v>0.1955209473454081</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J6">
-        <v>0.1955209473454081</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>52.5540336071728</v>
+        <v>0.1953733333333333</v>
       </c>
       <c r="N6">
-        <v>52.5540336071728</v>
+        <v>0.58612</v>
       </c>
       <c r="O6">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="P6">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="Q6">
-        <v>676.1774556583173</v>
+        <v>3.033281451057777</v>
       </c>
       <c r="R6">
-        <v>676.1774556583173</v>
+        <v>27.29953305952</v>
       </c>
       <c r="S6">
-        <v>0.1013121091923264</v>
+        <v>0.0003786849161456298</v>
       </c>
       <c r="T6">
-        <v>0.1013121091923264</v>
+        <v>0.0003786849161456299</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.8663284099668</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H7">
-        <v>12.8663284099668</v>
+        <v>46.576696</v>
       </c>
       <c r="I7">
-        <v>0.1955209473454081</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J7">
-        <v>0.1955209473454081</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.5798055134375</v>
+        <v>46.36628199999999</v>
       </c>
       <c r="N7">
-        <v>44.5798055134375</v>
+        <v>139.098846</v>
       </c>
       <c r="O7">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160336</v>
       </c>
       <c r="P7">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160338</v>
       </c>
       <c r="Q7">
-        <v>573.5784181883355</v>
+        <v>719.8627404547572</v>
       </c>
       <c r="R7">
-        <v>573.5784181883355</v>
+        <v>6478.764664092815</v>
       </c>
       <c r="S7">
-        <v>0.08593962849187707</v>
+        <v>0.08987005192360585</v>
       </c>
       <c r="T7">
-        <v>0.08593962849187707</v>
+        <v>0.08987005192360588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.23098556456649</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H8">
-        <v>5.23098556456649</v>
+        <v>38.891698</v>
       </c>
       <c r="I8">
-        <v>0.07949177267556111</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J8">
-        <v>0.07949177267556111</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.28952003767605</v>
+        <v>4.389977333333333</v>
       </c>
       <c r="N8">
-        <v>4.28952003767605</v>
+        <v>13.169932</v>
       </c>
       <c r="O8">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783071</v>
       </c>
       <c r="P8">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783072</v>
       </c>
       <c r="Q8">
-        <v>22.43841739600213</v>
+        <v>56.91122422494844</v>
       </c>
       <c r="R8">
-        <v>22.43841739600213</v>
+        <v>512.201018024536</v>
       </c>
       <c r="S8">
-        <v>0.003361962713047752</v>
+        <v>0.007104985976772529</v>
       </c>
       <c r="T8">
-        <v>0.003361962713047752</v>
+        <v>0.007104985976772529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,181 +971,181 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.23098556456649</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H9">
-        <v>5.23098556456649</v>
+        <v>38.891698</v>
       </c>
       <c r="I9">
-        <v>0.07949177267556111</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J9">
-        <v>0.07949177267556111</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>52.5540336071728</v>
+        <v>52.60848633333333</v>
       </c>
       <c r="N9">
-        <v>52.5540336071728</v>
+        <v>157.825459</v>
       </c>
       <c r="O9">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465702</v>
       </c>
       <c r="P9">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465704</v>
       </c>
       <c r="Q9">
-        <v>274.9093911588631</v>
+        <v>682.0111209043757</v>
       </c>
       <c r="R9">
-        <v>274.9093911588631</v>
+        <v>6138.100088139381</v>
       </c>
       <c r="S9">
-        <v>0.0411898533765322</v>
+        <v>0.08514453020506769</v>
       </c>
       <c r="T9">
-        <v>0.0411898533765322</v>
+        <v>0.08514453020506771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.23098556456649</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H10">
-        <v>5.23098556456649</v>
+        <v>38.891698</v>
       </c>
       <c r="I10">
-        <v>0.07949177267556111</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J10">
-        <v>0.07949177267556111</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>44.5798055134375</v>
+        <v>0.1014806666666667</v>
       </c>
       <c r="N10">
-        <v>44.5798055134375</v>
+        <v>0.304442</v>
       </c>
       <c r="O10">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511412</v>
       </c>
       <c r="P10">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511414</v>
       </c>
       <c r="Q10">
-        <v>233.1963191119732</v>
+        <v>1.315585146946222</v>
       </c>
       <c r="R10">
-        <v>233.1963191119732</v>
+        <v>11.840266322516</v>
       </c>
       <c r="S10">
-        <v>0.03493995658598116</v>
+        <v>0.0001642420128471872</v>
       </c>
       <c r="T10">
-        <v>0.03493995658598116</v>
+        <v>0.0001642420128471873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.61645760332055</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H11">
-        <v>3.61645760332055</v>
+        <v>38.891698</v>
       </c>
       <c r="I11">
-        <v>0.05495687612699159</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J11">
-        <v>0.05495687612699159</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>4.28952003767605</v>
+        <v>0.132795</v>
       </c>
       <c r="N11">
-        <v>4.28952003767605</v>
+        <v>0.398385</v>
       </c>
       <c r="O11">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593907</v>
       </c>
       <c r="P11">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593908</v>
       </c>
       <c r="Q11">
-        <v>15.5128673548494</v>
+        <v>1.72154101197</v>
       </c>
       <c r="R11">
-        <v>15.5128673548494</v>
+        <v>15.49386910773</v>
       </c>
       <c r="S11">
-        <v>0.002324303033455099</v>
+        <v>0.00021492288937836</v>
       </c>
       <c r="T11">
-        <v>0.002324303033455099</v>
+        <v>0.0002149228893783601</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.61645760332055</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H12">
-        <v>3.61645760332055</v>
+        <v>38.891698</v>
       </c>
       <c r="I12">
-        <v>0.05495687612699159</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J12">
-        <v>0.05495687612699159</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>52.5540336071728</v>
+        <v>0.1953733333333333</v>
       </c>
       <c r="N12">
-        <v>52.5540336071728</v>
+        <v>0.58612</v>
       </c>
       <c r="O12">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="P12">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="Q12">
-        <v>190.0594344238238</v>
+        <v>2.532800225751111</v>
       </c>
       <c r="R12">
-        <v>190.0594344238238</v>
+        <v>22.79520203176</v>
       </c>
       <c r="S12">
-        <v>0.02847672901876254</v>
+        <v>0.0003162031801459502</v>
       </c>
       <c r="T12">
-        <v>0.02847672901876254</v>
+        <v>0.0003162031801459503</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.61645760332055</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H13">
-        <v>3.61645760332055</v>
+        <v>38.891698</v>
       </c>
       <c r="I13">
-        <v>0.05495687612699159</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J13">
-        <v>0.05495687612699159</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.5798055134375</v>
+        <v>46.36628199999999</v>
       </c>
       <c r="N13">
-        <v>44.5798055134375</v>
+        <v>139.098846</v>
       </c>
       <c r="O13">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160336</v>
       </c>
       <c r="P13">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160338</v>
       </c>
       <c r="Q13">
-        <v>161.2209766036224</v>
+        <v>601.0878123089452</v>
       </c>
       <c r="R13">
-        <v>161.2209766036224</v>
+        <v>5409.790310780507</v>
       </c>
       <c r="S13">
-        <v>0.02415584407477395</v>
+        <v>0.07504179598005831</v>
       </c>
       <c r="T13">
-        <v>0.02415584407477395</v>
+        <v>0.07504179598005833</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.30409393500903</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H14">
-        <v>1.30409393500903</v>
+        <v>21.843694</v>
       </c>
       <c r="I14">
-        <v>0.01981743924730307</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J14">
-        <v>0.01981743924730307</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.28952003767605</v>
+        <v>4.389977333333333</v>
       </c>
       <c r="N14">
-        <v>4.28952003767605</v>
+        <v>13.169932</v>
       </c>
       <c r="O14">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783071</v>
       </c>
       <c r="P14">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783072</v>
       </c>
       <c r="Q14">
-        <v>5.593937065233042</v>
+        <v>31.96444051208978</v>
       </c>
       <c r="R14">
-        <v>5.593937065233042</v>
+        <v>287.6799646088079</v>
       </c>
       <c r="S14">
-        <v>0.000838143238916665</v>
+        <v>0.00399054676272839</v>
       </c>
       <c r="T14">
-        <v>0.000838143238916665</v>
+        <v>0.003990546762728391</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.30409393500903</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H15">
-        <v>1.30409393500903</v>
+        <v>21.843694</v>
       </c>
       <c r="I15">
-        <v>0.01981743924730307</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J15">
-        <v>0.01981743924730307</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.5540336071728</v>
+        <v>52.60848633333333</v>
       </c>
       <c r="N15">
-        <v>52.5540336071728</v>
+        <v>157.825459</v>
       </c>
       <c r="O15">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465702</v>
       </c>
       <c r="P15">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465704</v>
       </c>
       <c r="Q15">
-        <v>68.53539648737478</v>
+        <v>383.0545590895051</v>
       </c>
       <c r="R15">
-        <v>68.53539648737478</v>
+        <v>3447.491031805546</v>
       </c>
       <c r="S15">
-        <v>0.01026870315531036</v>
+        <v>0.04782180154677885</v>
       </c>
       <c r="T15">
-        <v>0.01026870315531036</v>
+        <v>0.04782180154677886</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.30409393500903</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H16">
-        <v>1.30409393500903</v>
+        <v>21.843694</v>
       </c>
       <c r="I16">
-        <v>0.01981743924730307</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J16">
-        <v>0.01981743924730307</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>44.5798055134375</v>
+        <v>0.1014806666666667</v>
       </c>
       <c r="N16">
-        <v>44.5798055134375</v>
+        <v>0.304442</v>
       </c>
       <c r="O16">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511412</v>
       </c>
       <c r="P16">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511414</v>
       </c>
       <c r="Q16">
-        <v>58.13625399395595</v>
+        <v>0.7389042098608889</v>
       </c>
       <c r="R16">
-        <v>58.13625399395595</v>
+        <v>6.650137888748</v>
       </c>
       <c r="S16">
-        <v>0.008710592853076049</v>
+        <v>9.224725211478364E-05</v>
       </c>
       <c r="T16">
-        <v>0.008710592853076049</v>
+        <v>9.224725211478365E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.9261576695768</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H17">
-        <v>28.9261576695768</v>
+        <v>21.843694</v>
       </c>
       <c r="I17">
-        <v>0.4395713812370263</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J17">
-        <v>0.4395713812370263</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>4.28952003767605</v>
+        <v>0.132795</v>
       </c>
       <c r="N17">
-        <v>4.28952003767605</v>
+        <v>0.398385</v>
       </c>
       <c r="O17">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593907</v>
       </c>
       <c r="P17">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593908</v>
       </c>
       <c r="Q17">
-        <v>124.0793329366264</v>
+        <v>0.96691111491</v>
       </c>
       <c r="R17">
-        <v>124.0793329366264</v>
+        <v>8.70220003419</v>
       </c>
       <c r="S17">
-        <v>0.01859088737992279</v>
+        <v>0.0001207123903198247</v>
       </c>
       <c r="T17">
-        <v>0.01859088737992279</v>
+        <v>0.0001207123903198247</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>28.9261576695768</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H18">
-        <v>28.9261576695768</v>
+        <v>21.843694</v>
       </c>
       <c r="I18">
-        <v>0.4395713812370263</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J18">
-        <v>0.4395713812370263</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>52.5540336071728</v>
+        <v>0.1953733333333333</v>
       </c>
       <c r="N18">
-        <v>52.5540336071728</v>
+        <v>0.58612</v>
       </c>
       <c r="O18">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="P18">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="Q18">
-        <v>1520.186262293318</v>
+        <v>1.422558436364444</v>
       </c>
       <c r="R18">
-        <v>1520.186262293318</v>
+        <v>12.80302592728</v>
       </c>
       <c r="S18">
-        <v>0.2277704991631078</v>
+        <v>0.000177596913072168</v>
       </c>
       <c r="T18">
-        <v>0.2277704991631078</v>
+        <v>0.0001775969130721681</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,52 +1591,1168 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>28.9261576695768</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H19">
-        <v>28.9261576695768</v>
+        <v>21.843694</v>
       </c>
       <c r="I19">
-        <v>0.4395713812370263</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J19">
-        <v>0.4395713812370263</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>44.5798055134375</v>
+        <v>46.36628199999999</v>
       </c>
       <c r="N19">
-        <v>44.5798055134375</v>
+        <v>139.098846</v>
       </c>
       <c r="O19">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160336</v>
       </c>
       <c r="P19">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160338</v>
       </c>
       <c r="Q19">
-        <v>1289.522483160762</v>
+        <v>337.6036253085693</v>
       </c>
       <c r="R19">
-        <v>1289.522483160762</v>
+        <v>3038.432627777123</v>
       </c>
       <c r="S19">
-        <v>0.1932099946939957</v>
+        <v>0.04214755623677896</v>
       </c>
       <c r="T19">
-        <v>0.1932099946939957</v>
+        <v>0.04214755623677897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>9.350440000000001</v>
+      </c>
+      <c r="H20">
+        <v>28.05132</v>
+      </c>
+      <c r="I20">
+        <v>0.121163342450867</v>
+      </c>
+      <c r="J20">
+        <v>0.1211633424508669</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.389977333333333</v>
+      </c>
+      <c r="N20">
+        <v>13.169932</v>
+      </c>
+      <c r="O20">
+        <v>0.04229493651783071</v>
+      </c>
+      <c r="P20">
+        <v>0.04229493651783072</v>
+      </c>
+      <c r="Q20">
+        <v>41.04821965669333</v>
+      </c>
+      <c r="R20">
+        <v>369.43397691024</v>
+      </c>
+      <c r="S20">
+        <v>0.005124595877247602</v>
+      </c>
+      <c r="T20">
+        <v>0.005124595877247602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>9.350440000000001</v>
+      </c>
+      <c r="H21">
+        <v>28.05132</v>
+      </c>
+      <c r="I21">
+        <v>0.121163342450867</v>
+      </c>
+      <c r="J21">
+        <v>0.1211633424508669</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>52.60848633333333</v>
+      </c>
+      <c r="N21">
+        <v>157.825459</v>
+      </c>
+      <c r="O21">
+        <v>0.5068528652465702</v>
+      </c>
+      <c r="P21">
+        <v>0.5068528652465704</v>
+      </c>
+      <c r="Q21">
+        <v>491.9124949506534</v>
+      </c>
+      <c r="R21">
+        <v>4427.21245455588</v>
+      </c>
+      <c r="S21">
+        <v>0.06141198728407331</v>
+      </c>
+      <c r="T21">
+        <v>0.06141198728407332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9.350440000000001</v>
+      </c>
+      <c r="H22">
+        <v>28.05132</v>
+      </c>
+      <c r="I22">
+        <v>0.121163342450867</v>
+      </c>
+      <c r="J22">
+        <v>0.1211633424508669</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1014806666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.304442</v>
+      </c>
+      <c r="O22">
+        <v>0.0009777085457511412</v>
+      </c>
+      <c r="P22">
+        <v>0.0009777085457511414</v>
+      </c>
+      <c r="Q22">
+        <v>0.9488888848266667</v>
+      </c>
+      <c r="R22">
+        <v>8.53999996344</v>
+      </c>
+      <c r="S22">
+        <v>0.0001184624353459846</v>
+      </c>
+      <c r="T22">
+        <v>0.0001184624353459847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>9.350440000000001</v>
+      </c>
+      <c r="H23">
+        <v>28.05132</v>
+      </c>
+      <c r="I23">
+        <v>0.121163342450867</v>
+      </c>
+      <c r="J23">
+        <v>0.1211633424508669</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.132795</v>
+      </c>
+      <c r="N23">
+        <v>0.398385</v>
+      </c>
+      <c r="O23">
+        <v>0.001279404349593907</v>
+      </c>
+      <c r="P23">
+        <v>0.001279404349593908</v>
+      </c>
+      <c r="Q23">
+        <v>1.2416916798</v>
+      </c>
+      <c r="R23">
+        <v>11.1752251182</v>
+      </c>
+      <c r="S23">
+        <v>0.0001550169073429753</v>
+      </c>
+      <c r="T23">
+        <v>0.0001550169073429753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9.350440000000001</v>
+      </c>
+      <c r="H24">
+        <v>28.05132</v>
+      </c>
+      <c r="I24">
+        <v>0.121163342450867</v>
+      </c>
+      <c r="J24">
+        <v>0.1211633424508669</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1953733333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.58612</v>
+      </c>
+      <c r="O24">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="P24">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="Q24">
+        <v>1.826826630933333</v>
+      </c>
+      <c r="R24">
+        <v>16.4414396784</v>
+      </c>
+      <c r="S24">
+        <v>0.0002280670952266393</v>
+      </c>
+      <c r="T24">
+        <v>0.0002280670952266393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.350440000000001</v>
+      </c>
+      <c r="H25">
+        <v>28.05132</v>
+      </c>
+      <c r="I25">
+        <v>0.121163342450867</v>
+      </c>
+      <c r="J25">
+        <v>0.1211633424508669</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>46.36628199999999</v>
+      </c>
+      <c r="N25">
+        <v>139.098846</v>
+      </c>
+      <c r="O25">
+        <v>0.4467127743160336</v>
+      </c>
+      <c r="P25">
+        <v>0.4467127743160338</v>
+      </c>
+      <c r="Q25">
+        <v>433.5451378640799</v>
+      </c>
+      <c r="R25">
+        <v>3901.90624077672</v>
+      </c>
+      <c r="S25">
+        <v>0.05412521285163043</v>
+      </c>
+      <c r="T25">
+        <v>0.05412521285163045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.374402</v>
+      </c>
+      <c r="H26">
+        <v>4.123206</v>
+      </c>
+      <c r="I26">
+        <v>0.01780955122872896</v>
+      </c>
+      <c r="J26">
+        <v>0.01780955122872896</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.389977333333333</v>
+      </c>
+      <c r="N26">
+        <v>13.169932</v>
+      </c>
+      <c r="O26">
+        <v>0.04229493651783071</v>
+      </c>
+      <c r="P26">
+        <v>0.04229493651783072</v>
+      </c>
+      <c r="Q26">
+        <v>6.033593626888</v>
+      </c>
+      <c r="R26">
+        <v>54.30234264199199</v>
+      </c>
+      <c r="S26">
+        <v>0.0007532538386301454</v>
+      </c>
+      <c r="T26">
+        <v>0.0007532538386301454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.374402</v>
+      </c>
+      <c r="H27">
+        <v>4.123206</v>
+      </c>
+      <c r="I27">
+        <v>0.01780955122872896</v>
+      </c>
+      <c r="J27">
+        <v>0.01780955122872896</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>52.60848633333333</v>
+      </c>
+      <c r="N27">
+        <v>157.825459</v>
+      </c>
+      <c r="O27">
+        <v>0.5068528652465702</v>
+      </c>
+      <c r="P27">
+        <v>0.5068528652465704</v>
+      </c>
+      <c r="Q27">
+        <v>72.30520883350599</v>
+      </c>
+      <c r="R27">
+        <v>650.746879501554</v>
+      </c>
+      <c r="S27">
+        <v>0.009026822069036851</v>
+      </c>
+      <c r="T27">
+        <v>0.009026822069036851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.374402</v>
+      </c>
+      <c r="H28">
+        <v>4.123206</v>
+      </c>
+      <c r="I28">
+        <v>0.01780955122872896</v>
+      </c>
+      <c r="J28">
+        <v>0.01780955122872896</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1014806666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.304442</v>
+      </c>
+      <c r="O28">
+        <v>0.0009777085457511412</v>
+      </c>
+      <c r="P28">
+        <v>0.0009777085457511414</v>
+      </c>
+      <c r="Q28">
+        <v>0.139475231228</v>
+      </c>
+      <c r="R28">
+        <v>1.255277081052</v>
+      </c>
+      <c r="S28">
+        <v>1.741255043232105E-05</v>
+      </c>
+      <c r="T28">
+        <v>1.741255043232105E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.374402</v>
+      </c>
+      <c r="H29">
+        <v>4.123206</v>
+      </c>
+      <c r="I29">
+        <v>0.01780955122872896</v>
+      </c>
+      <c r="J29">
+        <v>0.01780955122872896</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.132795</v>
+      </c>
+      <c r="N29">
+        <v>0.398385</v>
+      </c>
+      <c r="O29">
+        <v>0.001279404349593907</v>
+      </c>
+      <c r="P29">
+        <v>0.001279404349593908</v>
+      </c>
+      <c r="Q29">
+        <v>0.18251371359</v>
+      </c>
+      <c r="R29">
+        <v>1.64262342231</v>
+      </c>
+      <c r="S29">
+        <v>2.278561730635135E-05</v>
+      </c>
+      <c r="T29">
+        <v>2.278561730635135E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.374402</v>
+      </c>
+      <c r="H30">
+        <v>4.123206</v>
+      </c>
+      <c r="I30">
+        <v>0.01780955122872896</v>
+      </c>
+      <c r="J30">
+        <v>0.01780955122872896</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1953733333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.58612</v>
+      </c>
+      <c r="O30">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="P30">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="Q30">
+        <v>0.26852150008</v>
+      </c>
+      <c r="R30">
+        <v>2.41669350072</v>
+      </c>
+      <c r="S30">
+        <v>3.352311461425168E-05</v>
+      </c>
+      <c r="T30">
+        <v>3.352311461425168E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.374402</v>
+      </c>
+      <c r="H31">
+        <v>4.123206</v>
+      </c>
+      <c r="I31">
+        <v>0.01780955122872896</v>
+      </c>
+      <c r="J31">
+        <v>0.01780955122872896</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>46.36628199999999</v>
+      </c>
+      <c r="N31">
+        <v>139.098846</v>
+      </c>
+      <c r="O31">
+        <v>0.4467127743160336</v>
+      </c>
+      <c r="P31">
+        <v>0.4467127743160338</v>
+      </c>
+      <c r="Q31">
+        <v>63.72591071336398</v>
+      </c>
+      <c r="R31">
+        <v>573.5331964202759</v>
+      </c>
+      <c r="S31">
+        <v>0.00795575403870904</v>
+      </c>
+      <c r="T31">
+        <v>0.007955754038709042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>30.676648</v>
+      </c>
+      <c r="H32">
+        <v>92.029944</v>
+      </c>
+      <c r="I32">
+        <v>0.3975091232999413</v>
+      </c>
+      <c r="J32">
+        <v>0.3975091232999413</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.389977333333333</v>
+      </c>
+      <c r="N32">
+        <v>13.169932</v>
+      </c>
+      <c r="O32">
+        <v>0.04229493651783071</v>
+      </c>
+      <c r="P32">
+        <v>0.04229493651783072</v>
+      </c>
+      <c r="Q32">
+        <v>134.6697893826453</v>
+      </c>
+      <c r="R32">
+        <v>1212.028104443808</v>
+      </c>
+      <c r="S32">
+        <v>0.01681262313522956</v>
+      </c>
+      <c r="T32">
+        <v>0.01681262313522956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>30.676648</v>
+      </c>
+      <c r="H33">
+        <v>92.029944</v>
+      </c>
+      <c r="I33">
+        <v>0.3975091232999413</v>
+      </c>
+      <c r="J33">
+        <v>0.3975091232999413</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>52.60848633333333</v>
+      </c>
+      <c r="N33">
+        <v>157.825459</v>
+      </c>
+      <c r="O33">
+        <v>0.5068528652465702</v>
+      </c>
+      <c r="P33">
+        <v>0.5068528652465704</v>
+      </c>
+      <c r="Q33">
+        <v>1613.852017060477</v>
+      </c>
+      <c r="R33">
+        <v>14524.66815354429</v>
+      </c>
+      <c r="S33">
+        <v>0.2014786381062274</v>
+      </c>
+      <c r="T33">
+        <v>0.2014786381062275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>30.676648</v>
+      </c>
+      <c r="H34">
+        <v>92.029944</v>
+      </c>
+      <c r="I34">
+        <v>0.3975091232999413</v>
+      </c>
+      <c r="J34">
+        <v>0.3975091232999413</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1014806666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.304442</v>
+      </c>
+      <c r="O34">
+        <v>0.0009777085457511412</v>
+      </c>
+      <c r="P34">
+        <v>0.0009777085457511414</v>
+      </c>
+      <c r="Q34">
+        <v>3.113086690138667</v>
+      </c>
+      <c r="R34">
+        <v>28.017780211248</v>
+      </c>
+      <c r="S34">
+        <v>0.0003886480668643966</v>
+      </c>
+      <c r="T34">
+        <v>0.0003886480668643967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>30.676648</v>
+      </c>
+      <c r="H35">
+        <v>92.029944</v>
+      </c>
+      <c r="I35">
+        <v>0.3975091232999413</v>
+      </c>
+      <c r="J35">
+        <v>0.3975091232999413</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.132795</v>
+      </c>
+      <c r="N35">
+        <v>0.398385</v>
+      </c>
+      <c r="O35">
+        <v>0.001279404349593907</v>
+      </c>
+      <c r="P35">
+        <v>0.001279404349593908</v>
+      </c>
+      <c r="Q35">
+        <v>4.07370547116</v>
+      </c>
+      <c r="R35">
+        <v>36.66334924044</v>
+      </c>
+      <c r="S35">
+        <v>0.0005085749013532058</v>
+      </c>
+      <c r="T35">
+        <v>0.0005085749013532058</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>30.676648</v>
+      </c>
+      <c r="H36">
+        <v>92.029944</v>
+      </c>
+      <c r="I36">
+        <v>0.3975091232999413</v>
+      </c>
+      <c r="J36">
+        <v>0.3975091232999413</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.1953733333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.58612</v>
+      </c>
+      <c r="O36">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="P36">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="Q36">
+        <v>5.993398975253333</v>
+      </c>
+      <c r="R36">
+        <v>53.94059077728</v>
+      </c>
+      <c r="S36">
+        <v>0.0007482358050156028</v>
+      </c>
+      <c r="T36">
+        <v>0.000748235805015603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>30.676648</v>
+      </c>
+      <c r="H37">
+        <v>92.029944</v>
+      </c>
+      <c r="I37">
+        <v>0.3975091232999413</v>
+      </c>
+      <c r="J37">
+        <v>0.3975091232999413</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>46.36628199999999</v>
+      </c>
+      <c r="N37">
+        <v>139.098846</v>
+      </c>
+      <c r="O37">
+        <v>0.4467127743160336</v>
+      </c>
+      <c r="P37">
+        <v>0.4467127743160338</v>
+      </c>
+      <c r="Q37">
+        <v>1422.362111982736</v>
+      </c>
+      <c r="R37">
+        <v>12801.25900784462</v>
+      </c>
+      <c r="S37">
+        <v>0.177572403285251</v>
+      </c>
+      <c r="T37">
+        <v>0.1775724032852511</v>
       </c>
     </row>
   </sheetData>
